--- a/MainTop/30.09.2024/печать_бирки.xlsx
+++ b/MainTop/30.09.2024/печать_бирки.xlsx
@@ -88,25 +88,25 @@
     <t xml:space="preserve">Термобирки Пиксар Дисней</t>
   </si>
   <si>
+    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Критическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Гарри Поттер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Бабочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Гарри Поттер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
   </si>
 </sst>
 </file>
@@ -211,10 +211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,22 +747,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>11.22</v>
+        <v>265.98</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>39.2</v>
+        <v>211.88</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">ROUND(C14*I14,0)</f>
@@ -785,43 +785,43 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.97</v>
+        <v>0.62</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>265.98</v>
+        <v>119.35</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>211.88</v>
+        <v>74.57</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">ROUND(C15*I15,0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">J15/4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">J15/2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -841,14 +841,14 @@
         <v>9</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>24.79</v>
+        <v>24.87</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">ROUND(C16*I16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>8</v>
@@ -870,40 +870,40 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>59.57</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>24.87</v>
+        <v>92.89</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">ROUND(C17*I17,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1" t="n">
         <f aca="false">J17/4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="n">
         <f aca="false">J17/2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,40 +911,40 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.62</v>
+        <v>0.96</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>119.35</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>74.57</v>
+        <v>24.79</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">ROUND(C18*I18,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K18" s="1" t="n">
         <f aca="false">J18/4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1" t="n">
         <f aca="false">J18/2</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,46 +952,41 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>59.57</v>
+        <v>11.22</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>92.89</v>
+        <v>39.2</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">ROUND(C19*I19,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1" t="n">
         <f aca="false">J19/4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1" t="n">
         <f aca="false">J19/2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
